--- a/500all/speech_level/speeches_CHRG-114hhrg21964.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg21964.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. The Subcommittee on Government Operations will come to order. Without objection, the chair is authorized to declare a recess at any time.    Since 1999, the GSA has provided over 9,800 firearms to State and local law enforcement agencies through its surplus firearm donation program. And this program has helped to ensure that our law enforcement agencies have the necessary tools to protect and serve the American people. However, today's hearing is about a disconcerting finding by the GSA inspector generals that the firearms program is being poorly administered.    The IG found a program besieged by mismanagement, poor inventory, accounting procedures, and reliance on outdated and ineffective data management tools. The results of these problems are a system that the IG found to be placing firearms, such as grenade launchers, Uzis, M16s in a situation that is ripe for theft and loss. Allowing extremely dangerous firearms to be managed so carelessly is deplorable. The government needs to get its house in order.    The GSA is managing the firearms donations program using a haphazard system consisting of a digitally ancient Web platform, disorganized and practically unusable paper files, and spreadsheets riddled with incorrect and missing information.    When the IG began its evaluation of the surplus firearms donation program, the record-keeping system was so poor, in fact, that the IG could not even fully finish its review. The IG found that this program, which must track thousands of dangerous weapons throughout the country, was being administered using this paper file system and the paper files that the GSA officials described as the backbone, according to them, of the program. These paper files were, for practical purposes, incapable of being used to keep track of the firearms. The IG was told by the sole individual--one individual--managing and tracking the program that it would take days to search the files for a single item. To compensate, the administrator of the program resorted to creating a spreadsheet to track nearly 10,000 firearms spread across 831 different law enforcement agencies, yet these spreadsheets were really in no better shape than the paper files. The spreadsheets contained information that contradicted the paper files and the digital records. The spreadsheets were missing information critical to knowing the location and use of the firearms.    The only other way that firearms were able to be located was through a Web platform that had not been updated since 1999. Let me repeat that these firearms were being managed using a program that is now over 16 years old.    All told, the menagerie of half-accurate, unsearchable, pre-new-millennial software, paper, and spreadsheets created a system where the firearms were practically impossible to accurately be tracked. This atrocious quality of the program's records resulted in the IG being unable to even verify the GSA's reported number of missing firearms.    The current program manager's sole individual overseeing this program identified the need to create a better tracking system early on and communicated that need, yet, despite the fact that the GSA knew about the deficiencies, the agency appears to have only begun to address the deficiencies in light of the IG's report. This poor system contributed to hundreds of firearms going missing. Between 2001 and 2016, 485 firearms went missing. Of these, only 25 firearms were ever found. That's right, 25 of 485, which is just unbelievable.    Among those firearms that went missing were a set of 130 handguns, 5 Uzi submachine guns, and a pair of, get this, grenade launchers. In each of these instances, the firearms were sold to private gun shops, which is not allowed under the program, and appears to have never been recovered.    In fact, the GSA IG discovered yesterday that two of the missing grenade launchers were now located in Florida and Colorado and available for sale to the general public. In some cases, the firearms would go missing for as long as a decade--yes, 10 years--before anyone realized that the firearms were not where they were supposed to be. It is beyond unacceptable that these firearms were lost, let alone the fact that they were not recovered and, in some cases, were missing for years before anyone knew about it.    But pure luck, it appears that--but for pure luck, it appears that none of the missing firearms ended up in criminals' hands, so we can be thankful for that. Regardless, one shudders to think what might have happened if those missing Uzis or the grenade launchers ended up in the hands of an individual that was bent on using them for nefarious purposes.    The IG found that the GSA had weak and inconsistent, to quote them, ``weak and inconsistent inventory controls.'' So the GSA has a responsibility to maintain and track these firearms inventory checks. However, the GSA only apparently determined the need to require validated annual inventory reports in 2014, roughly 14 years into the program's existence. Based on this, it seems the GSA considered an accurate inventory to be an afterthought.    Even with recent annual inventory requirements, the practices used by GSA were feeble. The SASPs were provided with only limited training on how to acquire the firearms and conduct inventory review, leaving them on their own to create an inventory process and procedure, resulting in inconsistent procedures across States.    We, obviously, are having this hearing today, and in spite of all of this, what I would ask that each of you do is try to address your remarks--the results of these flaws still remaining is that the firearms may still be subject to the same threat of loss, theft, or improper sale.    So I appreciate all of our witnesses coming here today, and I'm optimistic that, through our conversations today, we will be able to help safeguard against these firearms being used improperly.    I'll now recognize the ranking member of the Subcommittee on Government Operations, Mr. Connolly, for his opening remarks.</t>
   </si>
   <si>
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. I thank the chair.    I've got to say to the chair, listening to this long list of problems, you know, the question comes to mind, well, what could go wrong with that? Unfortunately, the answer is pretty ugly.    This hearing is a very important hearing on the loss of missing firearms that have been donated to State and local law enforcement agencies through the GSA surplus firearm donation program. The numbers are very disturbing, as you point out, Mr. Chairman: 486 missing firearms since 1999; 308 of them traded to firearms dealers without required GSA approval. In 2002, the New Ellenton, South Carolina, Police Department traded five Uzi submachine guns it had received through the program to a gun shop for new equipment. In 2012, the Cayce Police Department in South Carolina sold two grenade launchers it had received through the program to a firearms dealer in Tennessee. GSA then lost track of the weapons.    We agree on the fact that the missing weapons from this program are a problem, but it's no ordinary problem. Can anybody tell us why the Cayce, South Carolina, Police Department, which polices a city of less than 13,000, needed two military-style grenade launchers in the first place or why any civilian would need to own a grenade launcher for hunting or self-defense?    This begs the question, why do our gun control policies allow for the purchase of a weapon designed for maximum destruction? The flaws in our lax gun control policies are highlighted in the unbridled buying and selling of these dangerous weapons by just about anybody.    In the fall of 2014, Federal programs that outfit State and local law enforcement agencies with weapons, military-style vehicles and riot gear received heightened scrutiny when we saw disturbing images of highly armed police officers during the protest in Ferguson, Missouri. The GSA firearms donation program is much smaller than some of those other programs. It can serve a valid purpose: donating law enforcement equipment to police departments that need it in order to outfit officers with basic supplies. It's not a program we need to end, but it's clearly one that needs reform, as you point out, Mr. Chairman, in terms of inventory accountability and technology.    I commend the President for taking executive action last year to scale back the type of military equipment and heavy weaponry that are donated to local law enforcement agencies. The executive order establishes standard procedures for all law enforcement acquisition programs and seeks to ensure local law enforcement agencies are trained in the proper use of controlled equipment. The President established a working group that reached out to stakeholders, including law enforcement and civil liberties groups, in an effort to strike the right balance between policing and civil rights.    The inspector general, Ms. Ochoa, also made recommendations to improve data management and the inventory process following these firearms. Incredibly, the IG found that, in some cases, records for this program were kept in paper form. That's unbelievable considering the magnitude of the program and the potential consequences of weapons getting into the wrong hands.    And this brings us back to a recurring theme on this committee and our subcommittee, particularly, Mr. Chairman, and that is the inadequacies of our IT investments in the Federal Government and what could go wrong with that.    Without question, tighter controls and additional reforms are desirable. For example, yesterday, committee staff asked the IG: Oh, by the way, whatever became of those missing grenade launchers? And we learned, just yesterday, that they are currently for sale by gun dealers in Colorado and Florida, as the chairman indicated.    There appear to be no consequences to the law enforcement agencies that violate the program. It's my understanding the Cayce Police Department only had to pay GSA fair market value for the weapons as a restitution. That's the full extent of the correction for violating the terms of the weapons transfer.    There's no provision I'm aware of to recover Federal weapons that have been put into general commerce by local police departments in violation of the terms of their contracts with GSA, to say nothing of the potential threat to public safety.    I want to know today whether the GSA or GSA IG intends to, in fact, recover those grenade launchers. Some of my colleagues, I know, will disagree on whether or not the general public should be able to purchase grenade launchers. Even if you do disagree with me on that, surely, you would agree that the sale of such weapons and hundreds of others we donated to local police departments at least must be accounted for.    Ms. Ochoa, as inspector general, you are charged with rooting out waste, fraud, and abuse. This seems to be in one of those categories. I thank you for the work you have already done to highlight the issues in this program. I'm curious to hear from all of you today what happens from here, and I look forward to working with my colleagues on the other side of the aisle to try to find common ground to tighten up our program that certainly started out with good intentions and has gone awry.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Ekin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ekin. Ekin.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meadows. Ekin, president of the National Association of State Agencies for Surplus Property.    Welcome to you all, and pursuant to committee rules, all witnesses will be sworn in before they testify. So, if you will, please, rise and raise your right hand.    Do you solemnly swear or affirm that the testimony you are about to give will be the truth, the whole truth, and nothing but the truth?    Thank you. Please be seated.    Let the record reflect that all witnesses answered in the affirmative.    In order to allow time for discussion, I would ask that you please limit your oral testimony to 5 minutes, but your entire written statement will be made part of the record.    Ms. Ochoa, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Ochoa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ochoa. Thank you, Chairman Meadows, Ranking Member Connolly, and members of the subcommittee. I appreciate the invitation to testify here today. Thank you for asking for testimony regarding the inspector general's evaluation of the GSA surplus firearm donation program.    As you know, the OIG found in that evaluation that GSA's records of firearms donations were incomplete and inaccurate and that inventory controls are not sufficient to monitor firearms donated to State and local law enforcement agents. As background, Federal agencies are required to report to GSA when they have excess property, including firearms, available for transfer to other Federal agencies. Excess property that is not needed by other Federal agencies becomes available as surplus property for State and local law enforcement use. Donations of Federal firearms to eligible State and local law enforcement agencies are for exclusive use by those agencies and only for law enforcement purposes.    Since 1999, GSA's surplus firearms donation program has coordinated the donation of surplus firearms, working with State Agency for Surplus Property representatives. To request surplus firearms, a State or local law enforcement agency must first submit a donation request to State officials. State officials then initiate the donation transfer process using GSA's Web-based property transfer system called GSAXcess and submit the donation request to GSA for approval. Once GSA approves the request, the donating Federal agency transfers the firearms directly to the State or local law enforcement agency.    Certain terms and conditions apply to firearms which are donated to those agencies. The law enforcement agencies must use the firearms solely for authorized law enforcement purposes. They may not sell or trade the firearms. They must report annual inventories to the State agencies, and they must immediately report lost or stolen weapons. Once the law enforcement agencies no longer have use for their donated firearms, they must notify GSA through the State agency, and GSA can then give permission to reassign the firearm to another agency, or the firearm must be destroyed.    The OIG began an evaluation of GSA's surplus firearm donation program in October 2014. We sought to determine whether firearms donations were made in compliance with Federal regulations, whether they were adequately monitored and reported, and to what extent donated firearms were missing or stolen.    We were unable to complete all of the objectives of this evaluation because we found that GSA's records of firearms donations were incomplete and inaccurate and that inventory controls were not sufficient to monitor firearms donated to State and local law enforcement agencies.    And just as examples, we found that information in GSAXcess used to record the initial transfer of the firearms was incomplete, often missing such basic information as the names and addresses of the law enforcement agency to whom the firearms were donated. Other information was entered incompletely or placed in the wrong data fields, including information such as the serial number, make, and model of the donated firearms. The database wasn't designed to record any transfers after the initial donation, such as information about a transfer of the firearms to another agency, reports of missing or stolen weapons, or destruction of weapons. The program officer for GSA sought to keep paper records of the transfers and used spreadsheets to manually track the subsequent activity. Those records, however, could not be sorted or searched electronically. They contained inaccuracies, and they were incomplete.    We also found that inventory controls were incomplete. States did them inconsistently. GSA provided no uniform guidance, and in general, there's been a lack of oversight from GSA on the inventory process. As a result, donated firearms have been overlooked in the inventory process, increasing the risk of theft or unauthorized use.    As a result of our review, we made several recommendations to GSA centered around improving data management, both electronically and also improving the inventory process, providing guidance to the States, implementing an inventory-wide review process, and implementing standardized procedures for conducting and reporting inventories.    Again, I thank you for the opportunity to testify and for the subcommittee's support of inspectors general. I ask that my testimony and the OIG's report be made part of the record.</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t xml:space="preserve">    Mr. Meadows. Mr. Sisk, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Sisk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sisk. Good afternoon. Chairman Meadows, Ranking Member Connolly, and members of the subcommittee, thank you for the opportunity to participate in today's hearing. My name is Bill Sisk, and I'm the acting Assistant Commissioner for the Office of General Supplies and Services in the Federal Acquisition Service at the General Services Administration.    GSA takes its responsibility for the surplus firearms donation program seriously and has implemented a number of changes to the program in response to the GSA inspector general's June 2015 report. GSA's Federal surplus personal property donation program makes the property that is surplus to the needs of the Federal Government available to State and local public agencies, eligible nonprofit organizations, and veterans service organizations.    The surplus firearms donation program enables law enforcement agencies to acquire firearms at little or no cost to support their mission. I'd like to thank GSA's inspector general for looking into this program at the request of the GSA Administrator and providing recommendations to assist in improving the program. GSA is working to complete the remaining actions to implement all four recommendations by the spring.    In response to the recommendation to implement a data management system to facilitate program maintenance, report, and oversight, GSA has created new data fields in GSAXcess to collect more complete information on the recipients of the donated firearms, and GSA is in the process of populating those new fields with data collected and the fiscal year 2016 inventory verification completed by the law enforcement agencies and State Agencies for Surplus Property. Regarding the recommendation about implementing a comprehensive inventory process, GSA has issued a standard operating procedure for requesting and processing donations, inventory and compliance, disposal and destruction, and internal controls.    For the recommendation about implementing standardized procedures for conducting and reporting donated firearms inventories, GSA has issued guidance to the State Agencies for Surplus Property on how to conduct inventories to help assist law enforcement agencies with their obligation to account for all donated firearms.    GSA also encourages law enforcement agencies to use voluntary consensus standards and other applicable standards to the maximum extent possible while adhering to State and local laws and regulations governing the asset management and inventory practices applicable to them. The remaining recommendation about providing inventory data to State Agencies for Surplus Property to facilitate reconciling inventory data from the GSA law enforcement agency information is on track to be completed in the spring.    Additionally, GSA is a member of the Federal Support for Law Enforcement Equipment Working Group, which addresses ways for the Federal Government to streamline programs that provide equipment and support to law enforcement agencies. The working group released recommendations in a report in May 2015. In line with the working group's recommendations, GSA has ceased donations of any items on the prohibited list, which includes grenade launchers. Per the working group's recommendations, our request and donations of controlled and prohibited equipment, GSA also issued policy guidance to regional offices and State Agencies for Surplus Property last fall. Since the firearms donation program began 15 years ago, 488 firearms have been reported as missing. Upon review of these firearms reported missing, 66 percent were, in fact, not missing but had been sold or traded by a law enforcement agency in violation of the terms of the conditional transfer required to be in compliance with receiving firearms through the surplus firearms donation program. In most instances, where the firearm is not under Federal Government restrictions, the sale or trade-in to a firearms manufacturer or licensed dealer is not inappropriate.    Due to the difficulties with tracking these firearms and ensuring that law enforcement agencies know which firearms have Federal Government restrictions, GSA is reevaluating its role in the firearms donation program. GSA is considering limiting the program to handguns and eliminating perpetual restrictions, meaning that the full title will transfer to the law enforcement agency after the initial statutory requirement to use the firearm for 12 months have passed. Elimination of perpetual restrictions will require GSA to modify the current Federal management regulation language on the donation of firearms, removing the requirement for perpetual restrictions.    GSA looks forward to keeping the committee updated regarding our progress, and we welcome the committee's and the OIG's oversight of this important program.    Thank you, again, for this opportunity to speak to all of you. I'm happy to answer any questions you might have.</t>
   </si>
   <si>
@@ -418,9 +403,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman.    I associate myself with your remarks and that of a Representative who had to do a tough thing yesterday to attend that funeral.    Mr. Sisk, how many program administrators have there been in the life of the surplus firearm donation program?</t>
   </si>
   <si>
@@ -547,9 +529,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you very much, Mr. Chairman. I certainly appreciate this hearing.    I want to offer my condolences to Mr. Connolly and the family of the slain police officer, who, apparently, served us doubly, served us in the armed services as well.</t>
   </si>
   <si>
@@ -655,9 +634,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    And thank all of you for being here. We appreciate your presence today.    Mr. Sisk, how many employees run the GSA surplus firearms donation program?</t>
   </si>
   <si>
@@ -758,9 +734,6 @@
   </si>
   <si>
     <t>400074</t>
-  </si>
-  <si>
-    <t>Wm. Lacy Clay</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Clay. Let's hope that I'm not as appalled, Mr. Chairman, with these answers.    You know, many of us were horrified--I know I was--in August of 2014 in Ferguson, Missouri, when officers looked like they were going to war and not serving and protecting their community. President Obama issued Executive Order 13688 on January 16, 2015. The President recognized the need for these programs to assist law enforcement officers' critical mission of keeping the American people safe. The executive order also recognized the need for law enforcement officers to be trained in proper use of the equipment and training on the protection of civil liberties.    The executive order established a working group to identify agency actions that can improve these programs. One of the recommendations was to prohibit certain items for transfer, such as grenade launchers and firearms that were 50 caliber or higher. We know that, prior to this, the GSA program facilitated donations of grenade launchers.    Mr. Sisk, were there other weapons that were donated through this program that are now on the prohibited items list?</t>
@@ -1426,11 +1399,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1450,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1478,11 +1447,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1502,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1530,11 +1495,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1554,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1582,11 +1543,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1608,11 +1567,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1632,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1660,11 +1615,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1684,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1712,11 +1663,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1736,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1764,11 +1711,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1788,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1816,11 +1759,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1840,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1868,11 +1807,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1892,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1920,11 +1855,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1944,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1972,11 +1903,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1996,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2024,11 +1951,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2048,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2076,11 +1999,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2100,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2128,11 +2047,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2152,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2180,11 +2095,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2204,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2232,11 +2143,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2256,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2284,11 +2191,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2308,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2336,11 +2239,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2360,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2388,11 +2287,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2412,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2440,11 +2335,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2464,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2492,11 +2383,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2516,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2544,11 +2431,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2568,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2596,11 +2479,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2620,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2648,11 +2527,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2672,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2700,11 +2575,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2724,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2752,11 +2623,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2776,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2804,11 +2671,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2828,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2856,11 +2719,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2880,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2908,11 +2767,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2932,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2960,11 +2815,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2984,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3012,11 +2863,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3036,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3062,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3088,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3114,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3140,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3166,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3192,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3218,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3244,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3270,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3296,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3322,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3348,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3374,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3400,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3426,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3452,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3478,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3504,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3530,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3556,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3582,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3610,11 +3415,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3634,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3660,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3686,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3712,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3738,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3764,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3790,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3816,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3842,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3868,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3894,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3920,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3946,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3972,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3998,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4024,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4050,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4076,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4102,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4128,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4154,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4180,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4206,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4232,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4258,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4284,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4310,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4336,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4362,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4388,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4414,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4440,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4466,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4492,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4518,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4544,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4570,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4596,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4624,11 +4351,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4648,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>133</v>
-      </c>
-      <c r="G126" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4674,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4700,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>133</v>
-      </c>
-      <c r="G128" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4726,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4752,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
+        <v>128</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
         <v>133</v>
-      </c>
-      <c r="G130" t="s">
-        <v>134</v>
-      </c>
-      <c r="H130" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4778,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4804,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>133</v>
-      </c>
-      <c r="G132" t="s">
+        <v>128</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
         <v>134</v>
-      </c>
-      <c r="H132" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4830,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4856,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>133</v>
-      </c>
-      <c r="G134" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4882,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4908,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>133</v>
-      </c>
-      <c r="G136" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4934,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4960,13 +4661,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>133</v>
-      </c>
-      <c r="G138" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4986,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5012,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>133</v>
-      </c>
-      <c r="G140" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5038,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5064,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>133</v>
-      </c>
-      <c r="G142" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5090,13 +4781,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5116,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>133</v>
-      </c>
-      <c r="G144" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5142,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5168,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>133</v>
-      </c>
-      <c r="G146" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5194,13 +4877,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5220,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>133</v>
-      </c>
-      <c r="G148" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5246,13 +4925,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5272,13 +4949,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>133</v>
-      </c>
-      <c r="G150" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5298,13 +4973,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5324,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>133</v>
-      </c>
-      <c r="G152" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5350,13 +5021,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5376,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>133</v>
-      </c>
-      <c r="G154" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5402,13 +5069,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5428,13 +5093,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>133</v>
-      </c>
-      <c r="G156" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5454,13 +5117,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5480,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>133</v>
-      </c>
-      <c r="G158" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5506,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5532,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>133</v>
-      </c>
-      <c r="G160" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5558,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5584,13 +5237,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5610,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5636,13 +5285,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5662,13 +5309,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5688,13 +5333,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5714,13 +5357,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5740,13 +5381,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5766,13 +5405,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>133</v>
-      </c>
-      <c r="G169" t="s">
-        <v>134</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5794,11 +5431,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5818,13 +5453,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>176</v>
-      </c>
-      <c r="G171" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5844,13 +5477,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5870,13 +5501,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>176</v>
-      </c>
-      <c r="G173" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5896,13 +5525,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5922,13 +5549,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>176</v>
-      </c>
-      <c r="G175" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5948,13 +5573,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5974,13 +5597,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>176</v>
-      </c>
-      <c r="G177" t="s">
+        <v>170</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
         <v>177</v>
-      </c>
-      <c r="H177" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6000,13 +5621,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6026,13 +5645,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>176</v>
-      </c>
-      <c r="G179" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6052,13 +5669,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6078,13 +5693,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>176</v>
-      </c>
-      <c r="G181" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6104,13 +5717,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6130,13 +5741,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>176</v>
-      </c>
-      <c r="G183" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6156,13 +5765,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6182,13 +5789,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>176</v>
-      </c>
-      <c r="G185" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6208,13 +5813,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6234,13 +5837,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>176</v>
-      </c>
-      <c r="G187" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6260,13 +5861,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6286,13 +5885,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>176</v>
-      </c>
-      <c r="G189" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6312,13 +5909,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6338,13 +5933,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>176</v>
-      </c>
-      <c r="G191" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6364,13 +5957,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6390,13 +5981,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>176</v>
-      </c>
-      <c r="G193" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6416,13 +6005,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6442,13 +6029,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>176</v>
-      </c>
-      <c r="G195" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6468,13 +6053,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6494,13 +6077,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>176</v>
-      </c>
-      <c r="G197" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6520,13 +6101,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6546,13 +6125,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>176</v>
-      </c>
-      <c r="G199" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6572,13 +6149,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6598,13 +6173,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>176</v>
-      </c>
-      <c r="G201" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6624,13 +6197,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6650,13 +6221,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>176</v>
-      </c>
-      <c r="G203" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6678,11 +6247,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6702,13 +6269,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6728,13 +6293,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>176</v>
-      </c>
-      <c r="G206" t="s">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6756,11 +6319,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6780,13 +6341,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>212</v>
-      </c>
-      <c r="G208" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6806,13 +6365,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6832,13 +6389,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>212</v>
-      </c>
-      <c r="G210" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6858,13 +6413,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6884,13 +6437,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>212</v>
-      </c>
-      <c r="G212" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6910,13 +6461,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6936,13 +6485,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
+        <v>205</v>
+      </c>
+      <c r="G214" t="s"/>
+      <c r="H214" t="s">
         <v>212</v>
-      </c>
-      <c r="G214" t="s">
-        <v>213</v>
-      </c>
-      <c r="H214" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6962,13 +6509,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>18</v>
-      </c>
-      <c r="G215" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6988,13 +6533,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>212</v>
-      </c>
-      <c r="G216" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7014,13 +6557,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>18</v>
-      </c>
-      <c r="G217" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7040,13 +6581,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>212</v>
-      </c>
-      <c r="G218" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7066,13 +6605,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>18</v>
-      </c>
-      <c r="G219" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7092,13 +6629,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>212</v>
-      </c>
-      <c r="G220" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7118,13 +6653,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>18</v>
-      </c>
-      <c r="G221" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7144,13 +6677,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>212</v>
-      </c>
-      <c r="G222" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7170,13 +6701,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7196,13 +6725,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>212</v>
-      </c>
-      <c r="G224" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7222,13 +6749,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>18</v>
-      </c>
-      <c r="G225" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7248,13 +6773,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>212</v>
-      </c>
-      <c r="G226" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7274,13 +6797,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7300,13 +6821,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>212</v>
-      </c>
-      <c r="G228" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7326,13 +6845,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7352,13 +6869,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>212</v>
-      </c>
-      <c r="G230" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7378,13 +6893,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7404,13 +6917,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>212</v>
-      </c>
-      <c r="G232" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7430,13 +6941,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7456,13 +6965,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>212</v>
-      </c>
-      <c r="G234" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7482,13 +6989,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>18</v>
-      </c>
-      <c r="G235" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7508,13 +7013,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>212</v>
-      </c>
-      <c r="G236" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7534,13 +7037,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>18</v>
-      </c>
-      <c r="G237" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7560,13 +7061,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>212</v>
-      </c>
-      <c r="G238" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7586,13 +7085,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>18</v>
-      </c>
-      <c r="G239" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7612,13 +7109,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>212</v>
-      </c>
-      <c r="G240" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7638,13 +7133,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7664,13 +7157,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>212</v>
-      </c>
-      <c r="G242" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7690,13 +7181,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7716,13 +7205,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>212</v>
-      </c>
-      <c r="G244" t="s">
-        <v>213</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7744,11 +7231,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7768,13 +7253,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>247</v>
-      </c>
-      <c r="G246" t="s">
-        <v>248</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7794,13 +7277,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>18</v>
-      </c>
-      <c r="G247" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7820,13 +7301,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>247</v>
-      </c>
-      <c r="G248" t="s">
-        <v>248</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7846,13 +7325,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>18</v>
-      </c>
-      <c r="G249" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7872,13 +7349,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>247</v>
-      </c>
-      <c r="G250" t="s">
-        <v>248</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7898,13 +7373,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>18</v>
-      </c>
-      <c r="G251" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7924,13 +7397,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>247</v>
-      </c>
-      <c r="G252" t="s">
-        <v>248</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7950,13 +7421,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>18</v>
-      </c>
-      <c r="G253" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7976,13 +7445,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>247</v>
-      </c>
-      <c r="G254" t="s">
+        <v>239</v>
+      </c>
+      <c r="G254" t="s"/>
+      <c r="H254" t="s">
         <v>248</v>
-      </c>
-      <c r="H254" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8002,13 +7469,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>18</v>
-      </c>
-      <c r="G255" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8028,13 +7493,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>247</v>
-      </c>
-      <c r="G256" t="s">
-        <v>248</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8054,13 +7517,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>18</v>
-      </c>
-      <c r="G257" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8080,13 +7541,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>247</v>
-      </c>
-      <c r="G258" t="s">
-        <v>248</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8106,13 +7565,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>18</v>
-      </c>
-      <c r="G259" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8132,13 +7589,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>247</v>
-      </c>
-      <c r="G260" t="s">
-        <v>248</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8158,13 +7613,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>18</v>
-      </c>
-      <c r="G261" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8184,13 +7637,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>247</v>
-      </c>
-      <c r="G262" t="s">
-        <v>248</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8210,13 +7661,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>18</v>
-      </c>
-      <c r="G263" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8236,13 +7685,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>247</v>
-      </c>
-      <c r="G264" t="s">
-        <v>248</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8264,11 +7711,9 @@
       <c r="F265" t="s">
         <v>11</v>
       </c>
-      <c r="G265" t="s">
-        <v>12</v>
-      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8288,13 +7733,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>18</v>
-      </c>
-      <c r="G266" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8316,11 +7759,9 @@
       <c r="F267" t="s">
         <v>11</v>
       </c>
-      <c r="G267" t="s">
-        <v>12</v>
-      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8340,13 +7781,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>18</v>
-      </c>
-      <c r="G268" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8368,11 +7807,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>12</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8392,13 +7829,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>18</v>
-      </c>
-      <c r="G270" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8420,11 +7855,9 @@
       <c r="F271" t="s">
         <v>11</v>
       </c>
-      <c r="G271" t="s">
-        <v>12</v>
-      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8444,13 +7877,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>18</v>
-      </c>
-      <c r="G272" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8472,11 +7903,9 @@
       <c r="F273" t="s">
         <v>11</v>
       </c>
-      <c r="G273" t="s">
-        <v>12</v>
-      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8496,13 +7925,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>18</v>
-      </c>
-      <c r="G274" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8524,11 +7951,9 @@
       <c r="F275" t="s">
         <v>11</v>
       </c>
-      <c r="G275" t="s">
-        <v>12</v>
-      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8548,13 +7973,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>18</v>
-      </c>
-      <c r="G276" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8576,11 +7999,9 @@
       <c r="F277" t="s">
         <v>11</v>
       </c>
-      <c r="G277" t="s">
-        <v>12</v>
-      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8600,13 +8021,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>18</v>
-      </c>
-      <c r="G278" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8628,11 +8047,9 @@
       <c r="F279" t="s">
         <v>11</v>
       </c>
-      <c r="G279" t="s">
-        <v>12</v>
-      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8652,13 +8069,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>18</v>
-      </c>
-      <c r="G280" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8680,11 +8095,9 @@
       <c r="F281" t="s">
         <v>11</v>
       </c>
-      <c r="G281" t="s">
-        <v>12</v>
-      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8704,13 +8117,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>18</v>
-      </c>
-      <c r="G282" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8732,11 +8143,9 @@
       <c r="F283" t="s">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
-        <v>12</v>
-      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8756,13 +8165,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>18</v>
-      </c>
-      <c r="G284" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8784,11 +8191,9 @@
       <c r="F285" t="s">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>12</v>
-      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8808,13 +8213,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>18</v>
-      </c>
-      <c r="G286" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8836,11 +8239,9 @@
       <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
-        <v>12</v>
-      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8860,13 +8261,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>18</v>
-      </c>
-      <c r="G288" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8888,11 +8287,9 @@
       <c r="F289" t="s">
         <v>11</v>
       </c>
-      <c r="G289" t="s">
-        <v>12</v>
-      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8912,13 +8309,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>18</v>
-      </c>
-      <c r="G290" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8940,11 +8335,9 @@
       <c r="F291" t="s">
         <v>11</v>
       </c>
-      <c r="G291" t="s">
-        <v>12</v>
-      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8964,13 +8357,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>18</v>
-      </c>
-      <c r="G292" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8992,11 +8383,9 @@
       <c r="F293" t="s">
         <v>11</v>
       </c>
-      <c r="G293" t="s">
-        <v>12</v>
-      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9016,13 +8405,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>18</v>
-      </c>
-      <c r="G294" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9044,11 +8431,9 @@
       <c r="F295" t="s">
         <v>11</v>
       </c>
-      <c r="G295" t="s">
-        <v>12</v>
-      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9068,13 +8453,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>18</v>
-      </c>
-      <c r="G296" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9096,11 +8479,9 @@
       <c r="F297" t="s">
         <v>11</v>
       </c>
-      <c r="G297" t="s">
-        <v>12</v>
-      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9120,13 +8501,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>18</v>
-      </c>
-      <c r="G298" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9148,11 +8527,9 @@
       <c r="F299" t="s">
         <v>11</v>
       </c>
-      <c r="G299" t="s">
-        <v>12</v>
-      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9172,13 +8549,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>18</v>
-      </c>
-      <c r="G300" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9200,11 +8575,9 @@
       <c r="F301" t="s">
         <v>11</v>
       </c>
-      <c r="G301" t="s">
-        <v>12</v>
-      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9224,13 +8597,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>18</v>
-      </c>
-      <c r="G302" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9252,11 +8623,9 @@
       <c r="F303" t="s">
         <v>11</v>
       </c>
-      <c r="G303" t="s">
-        <v>12</v>
-      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9276,13 +8645,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>18</v>
-      </c>
-      <c r="G304" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9304,11 +8671,9 @@
       <c r="F305" t="s">
         <v>11</v>
       </c>
-      <c r="G305" t="s">
-        <v>12</v>
-      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9328,13 +8693,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>18</v>
-      </c>
-      <c r="G306" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9356,11 +8719,9 @@
       <c r="F307" t="s">
         <v>11</v>
       </c>
-      <c r="G307" t="s">
-        <v>12</v>
-      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9380,13 +8741,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>18</v>
-      </c>
-      <c r="G308" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9406,13 +8765,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>14</v>
-      </c>
-      <c r="G309" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9432,13 +8789,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>18</v>
-      </c>
-      <c r="G310" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9458,13 +8813,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>14</v>
-      </c>
-      <c r="G311" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9484,13 +8837,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>18</v>
-      </c>
-      <c r="G312" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9510,13 +8861,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>14</v>
-      </c>
-      <c r="G313" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9538,11 +8887,9 @@
       <c r="F314" t="s">
         <v>11</v>
       </c>
-      <c r="G314" t="s">
-        <v>12</v>
-      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9562,13 +8909,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>18</v>
-      </c>
-      <c r="G315" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9590,11 +8935,9 @@
       <c r="F316" t="s">
         <v>11</v>
       </c>
-      <c r="G316" t="s">
-        <v>12</v>
-      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9614,13 +8957,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>18</v>
-      </c>
-      <c r="G317" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9640,13 +8981,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>18</v>
-      </c>
-      <c r="G318" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9668,11 +9007,9 @@
       <c r="F319" t="s">
         <v>11</v>
       </c>
-      <c r="G319" t="s">
-        <v>12</v>
-      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9692,13 +9029,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>18</v>
-      </c>
-      <c r="G320" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9720,11 +9055,9 @@
       <c r="F321" t="s">
         <v>11</v>
       </c>
-      <c r="G321" t="s">
-        <v>12</v>
-      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9744,13 +9077,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>18</v>
-      </c>
-      <c r="G322" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9772,11 +9103,9 @@
       <c r="F323" t="s">
         <v>11</v>
       </c>
-      <c r="G323" t="s">
-        <v>12</v>
-      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9796,13 +9125,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>14</v>
-      </c>
-      <c r="G324" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9822,13 +9149,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>18</v>
-      </c>
-      <c r="G325" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9848,13 +9173,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>14</v>
-      </c>
-      <c r="G326" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9874,13 +9197,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>18</v>
-      </c>
-      <c r="G327" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9900,13 +9221,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>14</v>
-      </c>
-      <c r="G328" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9926,13 +9245,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>18</v>
-      </c>
-      <c r="G329" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9952,13 +9269,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>14</v>
-      </c>
-      <c r="G330" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9978,13 +9293,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>18</v>
-      </c>
-      <c r="G331" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10004,13 +9317,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>14</v>
-      </c>
-      <c r="G332" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10030,13 +9341,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>18</v>
-      </c>
-      <c r="G333" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10056,13 +9365,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>14</v>
-      </c>
-      <c r="G334" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10084,11 +9391,9 @@
       <c r="F335" t="s">
         <v>11</v>
       </c>
-      <c r="G335" t="s">
-        <v>12</v>
-      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10108,13 +9413,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>14</v>
-      </c>
-      <c r="G336" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10136,11 +9439,9 @@
       <c r="F337" t="s">
         <v>11</v>
       </c>
-      <c r="G337" t="s">
-        <v>12</v>
-      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10160,13 +9461,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>18</v>
-      </c>
-      <c r="G338" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10188,11 +9487,9 @@
       <c r="F339" t="s">
         <v>11</v>
       </c>
-      <c r="G339" t="s">
-        <v>12</v>
-      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
